--- a/external_analysis/market_value.xlsx
+++ b/external_analysis/market_value.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyote\Documents\Cresicor\Project\capstone\python-analysis\external_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2BB587-3AF7-4C8B-850E-794E8610D74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735318C8-96C8-4F9E-9B4A-D8E0B3799F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -249,37 +249,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
@@ -452,6 +422,76 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -485,6 +525,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-367D-4597-95F4-ACF77AD575F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -500,6 +545,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-367D-4597-95F4-ACF77AD575F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -515,6 +565,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-367D-4597-95F4-ACF77AD575F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -530,6 +585,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-367D-4597-95F4-ACF77AD575F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -545,6 +605,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-367D-4597-95F4-ACF77AD575F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1711,7 +1776,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
@@ -1873,6 +1938,76 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1906,6 +2041,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-93AA-42EE-A199-07978BCF8304}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1921,6 +2061,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-93AA-42EE-A199-07978BCF8304}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1936,6 +2081,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-93AA-42EE-A199-07978BCF8304}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1951,6 +2101,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-93AA-42EE-A199-07978BCF8304}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1966,6 +2121,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-93AA-42EE-A199-07978BCF8304}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2328,6 +2488,76 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2361,6 +2591,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3868-4EB7-A1A2-8264EC6ECD52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2376,6 +2611,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3868-4EB7-A1A2-8264EC6ECD52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2391,6 +2631,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3868-4EB7-A1A2-8264EC6ECD52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2406,6 +2651,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3868-4EB7-A1A2-8264EC6ECD52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2421,6 +2671,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3868-4EB7-A1A2-8264EC6ECD52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2835,6 +3090,76 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2868,6 +3193,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7ABD-4154-8C43-95CB9E39ED3C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2883,6 +3213,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7ABD-4154-8C43-95CB9E39ED3C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2898,6 +3233,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7ABD-4154-8C43-95CB9E39ED3C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2913,6 +3253,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7ABD-4154-8C43-95CB9E39ED3C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2928,6 +3273,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7ABD-4154-8C43-95CB9E39ED3C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3258,6 +3608,76 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3291,6 +3711,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DDC5-4D8D-BE4E-B93DA9152BBE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3306,6 +3731,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DDC5-4D8D-BE4E-B93DA9152BBE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3321,6 +3751,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DDC5-4D8D-BE4E-B93DA9152BBE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3336,6 +3771,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DDC5-4D8D-BE4E-B93DA9152BBE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3351,6 +3791,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DDC5-4D8D-BE4E-B93DA9152BBE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -7382,7 +7827,178 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18A0CB76-C42C-4C7F-80B8-23484611576C}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DC888F0-8AD6-450C-BA46-FB5E4FAE1A2D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A58:B64" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0">
+      <items count="21">
+        <item x="8"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="18"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="16"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Work" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="7">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18A0CB76-C42C-4C7F-80B8-23484611576C}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A142:B148" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0">
@@ -7456,16 +8072,76 @@
     <dataField name="Sum of Recreation" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="1">
+  <chartFormats count="6">
     <chartFormat chart="4" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -7483,8 +8159,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE35CC0F-34C3-4633-B672-D553B37D1E1A}" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE35CC0F-34C3-4633-B672-D553B37D1E1A}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A122:B128" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0">
@@ -7558,16 +8234,76 @@
     <dataField name="Sum of Youth" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="1">
+  <chartFormats count="6">
     <chartFormat chart="8" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -7585,8 +8321,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47F947D1-3751-44C0-A059-3A9C8A5F2CF0}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47F947D1-3751-44C0-A059-3A9C8A5F2CF0}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A99:B105" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0">
@@ -7660,16 +8396,76 @@
     <dataField name="Sum of Speed" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="8">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="1">
+  <chartFormats count="6">
     <chartFormat chart="7" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -7687,8 +8483,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{065DEE34-3FCE-4383-997E-FA755DAB5E78}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{065DEE34-3FCE-4383-997E-FA755DAB5E78}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A77:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0">
@@ -7762,11 +8558,11 @@
     <dataField name="Sum of Mountain" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="13">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="5">
+  <chartFormats count="10">
     <chartFormat chart="2" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -7812,6 +8608,66 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="6" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -7825,8 +8681,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D05EDF16-B047-4A16-9F3C-ED7B1D6A29BD}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D05EDF16-B047-4A16-9F3C-ED7B1D6A29BD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A30:F36" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0">
@@ -7921,7 +8777,7 @@
     <dataField name="Sum of Youth" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="15">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7967,117 +8823,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DC888F0-8AD6-450C-BA46-FB5E4FAE1A2D}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A58:B64" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0">
-      <items count="21">
-        <item x="8"/>
-        <item x="17"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="19"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="18"/>
-        <item x="3"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="16"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Work" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="14">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -8884,8 +9629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117CC3AA-9054-439D-83C3-1EB7E0A937E6}">
   <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9830,6 +10575,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/external_analysis/market_value.xlsx
+++ b/external_analysis/market_value.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyote\Documents\Cresicor\Project\capstone\python-analysis\external_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735318C8-96C8-4F9E-9B4A-D8E0B3799F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6D3454-EE98-4B36-A1FE-E8941BE629F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="pivot" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
@@ -7827,501 +7827,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DC888F0-8AD6-450C-BA46-FB5E4FAE1A2D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A58:B64" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0">
-      <items count="21">
-        <item x="8"/>
-        <item x="17"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="19"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="18"/>
-        <item x="3"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="16"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Work" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="7">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18A0CB76-C42C-4C7F-80B8-23484611576C}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A142:B148" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0">
-      <items count="21">
-        <item x="8"/>
-        <item x="17"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="19"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="18"/>
-        <item x="3"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="16"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Recreation" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="6">
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE35CC0F-34C3-4633-B672-D553B37D1E1A}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A122:B128" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0">
-      <items count="21">
-        <item x="8"/>
-        <item x="17"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="19"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="18"/>
-        <item x="3"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="16"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Youth" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="2">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="6">
-    <chartFormat chart="8" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47F947D1-3751-44C0-A059-3A9C8A5F2CF0}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A99:B105" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -8396,7 +7901,7 @@
     <dataField name="Sum of Speed" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8483,7 +7988,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{065DEE34-3FCE-4383-997E-FA755DAB5E78}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A77:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -8558,7 +8063,7 @@
     <dataField name="Sum of Mountain" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8681,8 +8186,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D05EDF16-B047-4A16-9F3C-ED7B1D6A29BD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D05EDF16-B047-4A16-9F3C-ED7B1D6A29BD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A30:F36" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0">
@@ -8777,7 +8282,7 @@
     <dataField name="Sum of Youth" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8822,6 +8327,501 @@
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DC888F0-8AD6-450C-BA46-FB5E4FAE1A2D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A58:B64" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0">
+      <items count="21">
+        <item x="8"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="18"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="16"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Work" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="7">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18A0CB76-C42C-4C7F-80B8-23484611576C}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A142:B148" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0">
+      <items count="21">
+        <item x="8"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="18"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="16"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Recreation" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE35CC0F-34C3-4633-B672-D553B37D1E1A}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A122:B128" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0">
+      <items count="21">
+        <item x="8"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="18"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="16"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Youth" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="8" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
@@ -9629,8 +9629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117CC3AA-9054-439D-83C3-1EB7E0A937E6}">
   <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
